--- a/biology/Botanique/Vaccinieae/Vaccinieae.xlsx
+++ b/biology/Botanique/Vaccinieae/Vaccinieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vaccinieae sont une tribu de plantes à fleurs dicotylédones de la famille des Ericaceae, sous-famille des Vaccinioideae, à répartition quasi-cosmopolite, qui comprend environ 1000 espèces[2]. La tribu comprend des plantes ligneuses morphologiquement diverses Les espèces de Vaccinieae se rencontrent dans tous les continents sauf l'Australie et l'Antarctique[2]. Des analyses génétiques ont montré que les Vaccinieae sont un groupe monophylétique[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vaccinieae sont une tribu de plantes à fleurs dicotylédones de la famille des Ericaceae, sous-famille des Vaccinioideae, à répartition quasi-cosmopolite, qui comprend environ 1000 espèces. La tribu comprend des plantes ligneuses morphologiquement diverses Les espèces de Vaccinieae se rencontrent dans tous les continents sauf l'Australie et l'Antarctique. Des analyses génétiques ont montré que les Vaccinieae sont un groupe monophylétique. 
 Le genre-type de la tribu est Vaccinium.
 </t>
         </is>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des genres
-Selon NCBI  (21 octobre 2020)[3] :
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (21 octobre 2020) :
 Agapetes D.Don ex G.Don
 Anthopterus Hook.
 Cavendishia Lindl., 1835
